--- a/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
+++ b/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU LIEU E\Tai Lieu Hoc Tap\Chuyên Ngành\CAO HOC\FATIGUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluetechfinland-my.sharepoint.com/personal/vu_le_bluetechfinland_com/Documents/Tiedostot/GitHub/Fatigue/DOCUMENT/FATIGUE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8A3CE-5533-4528-8C84-439A8D62244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{19C8A3CE-5533-4528-8C84-439A8D62244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40CC3151-701F-4531-96A7-97F1BD3AB9C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1954,8 +1954,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2136,7 +2137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -2161,11 +2162,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="11" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="11" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2485,14 +2487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0FA94-0CA4-405F-A3C2-079945D2841C}">
   <dimension ref="B3:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -2607,18 +2609,18 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <v>10000000</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>10000000</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>10000000</v>
       </c>
       <c r="I8" t="s">
@@ -2626,18 +2628,18 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
       <c r="I9" t="s">
@@ -2645,66 +2647,66 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>14.885</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>11.699</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>14.885</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>5</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>5</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>16.856000000000002</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>14.832000000000001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>16.856000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>20</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>20</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>20</v>
       </c>
     </row>
@@ -2772,18 +2774,18 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.25</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2919,7 +2921,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="E24" s="15">
         <f>10^((E10-LOG(E8))/E9)</f>
         <v>93.594429194964292</v>
       </c>
@@ -2938,7 +2940,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="E25" s="15">
         <f>(E24/E20)^E7</f>
         <v>3.7817819736883385</v>
       </c>
@@ -3050,17 +3052,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
+++ b/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluetechfinland-my.sharepoint.com/personal/vu_le_bluetechfinland_com/Documents/Tiedostot/GitHub/Fatigue/DOCUMENT/FATIGUE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\FATIGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{19C8A3CE-5533-4528-8C84-439A8D62244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40CC3151-701F-4531-96A7-97F1BD3AB9C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA91CE2A-4D99-4D01-9A82-BCC5C4004DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1954,10 +1954,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2137,7 +2133,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -2149,7 +2145,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2167,7 +2162,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2485,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0FA94-0CA4-405F-A3C2-079945D2841C}">
-  <dimension ref="B3:O29"/>
+  <dimension ref="B3:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2491,7 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
@@ -2517,7 +2511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2560,8 +2554,12 @@
       <c r="O5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>E5*E6</f>
+        <v>394.83000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,109 +2606,109 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <v>10000000</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>10000000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>10000000</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>14.885</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>11.699</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>14.885</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
         <v>16.856000000000002</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>14.832000000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>16.856000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <v>20</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>20</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2754,7 +2752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2774,18 +2772,18 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.25</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +2859,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <f>IF(E15&lt;=E16,1,(E15/E16)^E17)</f>
         <v>1</v>
       </c>
@@ -2921,7 +2919,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="15">
+      <c r="E24" s="2">
         <f>10^((E10-LOG(E8))/E9)</f>
         <v>93.594429194964292</v>
       </c>
@@ -2940,7 +2938,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="15">
+      <c r="E25" s="2">
         <f>(E24/E20)^E7</f>
         <v>3.7817819736883385</v>
       </c>
@@ -3052,17 +3050,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3519,135 +3517,135 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>65</v>
       </c>
     </row>

--- a/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
+++ b/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\FATIGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA91CE2A-4D99-4D01-9A82-BCC5C4004DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7224F804-32A3-426A-8F9A-CD16A1003B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
   </bookViews>
@@ -2482,7 +2482,7 @@
   <dimension ref="B3:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
+++ b/DOCUMENT/FATIGUE/Fatigue Assessment Based on Stress Range Distributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\FATIGUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vu.le\OneDrive - Bluetech Finland Oy\Tiedostot\GitHub\Fatigue\DOCUMENT\FATIGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7224F804-32A3-426A-8F9A-CD16A1003B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EAD26-6D6C-4175-99FB-F80601C80FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAC97CA-63FD-4849-939E-6A15ABC2EAD4}"/>
   </bookViews>
@@ -2183,9 +2183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2223,7 +2223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2329,7 +2329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2471,7 +2471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2481,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0FA94-0CA4-405F-A3C2-079945D2841C}">
   <dimension ref="B3:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
